--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1362507.718334987</v>
+        <v>1331424.274700191</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1421158.826257673</v>
+        <v>1421158.826257672</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6437773.152925625</v>
+        <v>6437773.152925626</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8584071.288241304</v>
+        <v>8584071.288241303</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.87025616603948</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -676,10 +676,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>150.1283073856657</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -794,19 +794,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>102.1447106340495</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>42.33474450167088</v>
       </c>
     </row>
     <row r="4">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>209.1540351963425</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>55.52184105483003</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>147.7617864710292</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>390.6916458958789</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>206.089653525047</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>98.30833154240014</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>29.36299357133128</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>204.2683477448341</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>21.42071283216024</v>
+        <v>206.3843865266062</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>69.83484498490539</v>
+        <v>69.83484498490496</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>35.60073809933529</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>119.373772549403</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.97732649747915</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>124.8390672247517</v>
       </c>
       <c r="U13" t="n">
-        <v>17.10206975953228</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
@@ -1621,7 +1621,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>286.3705997540973</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>117.6984164651976</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.10206975953228</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.7808589384436</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
@@ -1861,10 +1861,10 @@
         <v>410.9480201594387</v>
       </c>
       <c r="H17" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.23435056966956</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7600659609929</v>
+        <v>163.2577849643122</v>
       </c>
       <c r="U17" t="n">
         <v>252.2568888014727</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.10107244068887</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4.63376562219938</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>284.2939940365704</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -2089,19 +2089,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>144.4533906417424</v>
+        <v>258.4291247544378</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>27.23435056966956</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U22" t="n">
-        <v>160.7682711911971</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>122.4547773637402</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>83.84470761433674</v>
       </c>
       <c r="E23" t="n">
-        <v>176.0019944419186</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -2335,7 +2335,7 @@
         <v>410.9480201594387</v>
       </c>
       <c r="H23" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>132.732122105711</v>
@@ -2368,19 +2368,19 @@
         <v>27.23435056966954</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.14350659953238</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>27.90397835000485</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.781284149124069</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>228.9402891135191</v>
+        <v>67.10107244068914</v>
       </c>
       <c r="U25" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>71.85562157756216</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>410.9480201594387</v>
       </c>
       <c r="H26" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7600659609929</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>197.7546078047918</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>67.10107244068914</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>42.48238609858825</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>336.5336790709756</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>108.0766239117081</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -2842,22 +2842,22 @@
         <v>27.23435056966954</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2961,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>69.52789061238694</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>122.4547773637404</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>27.90397835000485</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
@@ -3046,10 +3046,10 @@
         <v>410.9480201594387</v>
       </c>
       <c r="H32" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>68.97655276977426</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>263.6550058048603</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>59.91327184523105</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>67.10107244068909</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>319.3037704263417</v>
       </c>
       <c r="I35" t="n">
-        <v>20.71658460761426</v>
+        <v>123.235151121728</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>27.23435056966954</v>
       </c>
       <c r="S35" t="n">
         <v>162.6847975205958</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.4551270136815</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>122.4547773637405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H38" t="n">
         <v>319.3037704263417</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>45.15507563025066</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.23435056966954</v>
       </c>
       <c r="S38" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7600659609929</v>
@@ -3562,16 +3562,16 @@
         <v>252.2568888014727</v>
       </c>
       <c r="V38" t="n">
-        <v>307.3764358972594</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>21.3333249452679</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>201.9545636721961</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>49.30739137030522</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>410.9480201594387</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>130.9394155340598</v>
       </c>
       <c r="I41" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7812841491240619</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>203.7950511593192</v>
+        <v>133.5091048640469</v>
       </c>
       <c r="T43" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>28.84445632111203</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23.18551616240325</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>101.1677676340308</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>410.9480201594387</v>
       </c>
       <c r="H44" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>27.23435056966954</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.153865201029709</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T46" t="n">
-        <v>228.9402891135191</v>
+        <v>57.22389035745109</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1429.302003668149</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="C2" t="n">
-        <v>1429.302003668149</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="D2" t="n">
-        <v>1429.302003668149</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="E2" t="n">
-        <v>1377.917906530736</v>
+        <v>1023.924188271857</v>
       </c>
       <c r="F2" t="n">
-        <v>963.766715840906</v>
+        <v>609.7729975820271</v>
       </c>
       <c r="G2" t="n">
-        <v>547.662729295094</v>
+        <v>193.6690110362151</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K2" t="n">
         <v>354.1631724187873</v>
@@ -4357,25 +4357,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>1823.345543186168</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V2" t="n">
-        <v>1823.345543186168</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="W2" t="n">
-        <v>1823.345543186168</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="X2" t="n">
-        <v>1823.345543186168</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="Y2" t="n">
-        <v>1823.345543186168</v>
+        <v>1418.70990816575</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>577.19822137346</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C3" t="n">
-        <v>415.4945486144147</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D3" t="n">
-        <v>276.6559116046268</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E3" t="n">
-        <v>276.6559116046268</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F3" t="n">
-        <v>141.9621135545012</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G3" t="n">
         <v>141.9621135545012</v>
@@ -4412,19 +4412,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M3" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4442,19 +4442,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1596.767469945704</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1368.371847394038</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1127.055978627347</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X3" t="n">
-        <v>929.138990505142</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y3" t="n">
-        <v>736.6176641547208</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="C4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="D4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="E4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="F4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="G4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="H4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I4" t="n">
         <v>102.0814946870265</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R4" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S4" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T4" t="n">
-        <v>574.0835013471317</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="U4" t="n">
-        <v>362.8167991286039</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="V4" t="n">
-        <v>102.0814946870265</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="W4" t="n">
-        <v>102.0814946870265</v>
+        <v>302.3672068164996</v>
       </c>
       <c r="X4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.350961896761</v>
+        <v>1707.169265541942</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.350961896761</v>
+        <v>1325.235506874749</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.096632128045</v>
+        <v>952.4115421019731</v>
       </c>
       <c r="E5" t="n">
-        <v>1045.096632128045</v>
+        <v>952.4115421019731</v>
       </c>
       <c r="F5" t="n">
-        <v>630.9454414382152</v>
+        <v>942.3007554525475</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
         <v>214.8414548924032</v>
@@ -4567,19 +4567,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>1786.215572286826</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U5" t="n">
-        <v>1531.33023600082</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V5" t="n">
-        <v>1194.350961896761</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W5" t="n">
-        <v>1194.350961896761</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X5" t="n">
-        <v>1194.350961896761</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.350961896761</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921.3370166032433</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C6" t="n">
-        <v>759.6333438441981</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L6" t="n">
-        <v>468.100247804421</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M6" t="n">
-        <v>953.1336013146474</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N6" t="n">
-        <v>1464.39924743777</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O6" t="n">
-        <v>1799.116885784264</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P6" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4682,16 +4682,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V6" t="n">
-        <v>1273.277785734925</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W6" t="n">
-        <v>1273.277785734925</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X6" t="n">
-        <v>1273.277785734925</v>
+        <v>912.4363166212631</v>
       </c>
       <c r="Y6" t="n">
-        <v>1080.756459384504</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>353.8775562961483</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H7" t="n">
         <v>42.02425610119923</v>
@@ -4749,28 +4749,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>535.5461600008207</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="S7" t="n">
-        <v>535.5461600008207</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="T7" t="n">
-        <v>535.5461600008207</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="U7" t="n">
-        <v>248.3559204899205</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="V7" t="n">
-        <v>42.02425610119923</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="W7" t="n">
-        <v>42.02425610119923</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="X7" t="n">
-        <v>42.02425610119923</v>
+        <v>505.8865705348295</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>505.8865705348295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1429.30200366815</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="C8" t="n">
-        <v>1047.368245000957</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="D8" t="n">
-        <v>1047.368245000957</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="E8" t="n">
-        <v>652.5825251070639</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
         <v>114.0228003740049</v>
@@ -4816,40 +4816,40 @@
         <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
-        <v>1778.623654917372</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P8" t="n">
-        <v>2006.780551373425</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186169</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186169</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186169</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.345543186169</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W8" t="n">
-        <v>1823.345543186169</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X8" t="n">
-        <v>1823.345543186169</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y8" t="n">
-        <v>1823.345543186169</v>
+        <v>262.5569159062094</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>863.1487640860282</v>
+        <v>863.1487640860278</v>
       </c>
       <c r="C9" t="n">
-        <v>701.4450913269829</v>
+        <v>701.4450913269825</v>
       </c>
       <c r="D9" t="n">
-        <v>562.606454317195</v>
+        <v>562.6064543171946</v>
       </c>
       <c r="E9" t="n">
-        <v>415.5784443740662</v>
+        <v>415.5784443740658</v>
       </c>
       <c r="F9" t="n">
-        <v>280.8846463239406</v>
+        <v>280.8846463239402</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4880,49 +4880,49 @@
         <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769915</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000114</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059962</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U9" t="n">
-        <v>1882.718012658272</v>
+        <v>1882.718012658271</v>
       </c>
       <c r="V9" t="n">
-        <v>1654.322390106606</v>
+        <v>1654.322390106605</v>
       </c>
       <c r="W9" t="n">
-        <v>1413.006521339916</v>
+        <v>1413.006521339915</v>
       </c>
       <c r="X9" t="n">
         <v>1215.08953321771</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119924</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119924</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119924</v>
+        <v>382.4742668285834</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119924</v>
+        <v>230.4652525899022</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119924</v>
+        <v>77.98459761567932</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119924</v>
+        <v>77.98459761567932</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119924</v>
+        <v>77.98459761567932</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119924</v>
+        <v>77.98459761567932</v>
       </c>
       <c r="J10" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K10" t="n">
         <v>75.62844384584264</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V10" t="n">
-        <v>286.8932618362315</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119924</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119924</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119924</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1681.643401016125</v>
+        <v>1383.236612442834</v>
       </c>
       <c r="C11" t="n">
-        <v>1681.643401016125</v>
+        <v>1001.302853775641</v>
       </c>
       <c r="D11" t="n">
-        <v>1308.819436243349</v>
+        <v>1001.302853775641</v>
       </c>
       <c r="E11" t="n">
-        <v>914.0337163494555</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F11" t="n">
-        <v>499.8825256596259</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G11" t="n">
-        <v>84.16434827874912</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H11" t="n">
-        <v>84.16434827874912</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
@@ -5068,25 +5068,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S11" t="n">
-        <v>2297.855323089771</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T11" t="n">
-        <v>2075.185256440287</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="U11" t="n">
-        <v>2075.185256440287</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="V11" t="n">
-        <v>2075.185256440287</v>
+        <v>2139.313398009395</v>
       </c>
       <c r="W11" t="n">
-        <v>2075.185256440287</v>
+        <v>1776.778467866996</v>
       </c>
       <c r="X11" t="n">
-        <v>2075.185256440287</v>
+        <v>1776.778467866996</v>
       </c>
       <c r="Y11" t="n">
-        <v>1681.643401016125</v>
+        <v>1383.236612442834</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C12" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G12" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>68.10001809715425</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>68.10001809715425</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L12" t="n">
-        <v>477.85065097758</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.695873660731</v>
@@ -5150,16 +5150,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T12" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V12" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W12" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X12" t="n">
         <v>1272.800164973786</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
         <v>50.85391747321462</v>
@@ -5220,31 +5220,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>115.9505818408994</v>
+        <v>598.7700217506319</v>
       </c>
       <c r="U13" t="n">
-        <v>98.67576390197789</v>
+        <v>311.589221914792</v>
       </c>
       <c r="V13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="W13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1903.811783571752</v>
+        <v>2030.266728877783</v>
       </c>
       <c r="C14" t="n">
-        <v>1521.87802490456</v>
+        <v>1648.332970210591</v>
       </c>
       <c r="D14" t="n">
-        <v>1149.054060131783</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E14" t="n">
-        <v>754.26834023789</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F14" t="n">
-        <v>340.1171495480604</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G14" t="n">
         <v>50.85391747321462</v>
@@ -5302,28 +5302,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2297.855323089771</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2297.855323089771</v>
+        <v>2423.808584301945</v>
       </c>
       <c r="U14" t="n">
-        <v>2297.855323089771</v>
+        <v>2423.808584301945</v>
       </c>
       <c r="V14" t="n">
-        <v>2297.855323089771</v>
+        <v>2423.808584301945</v>
       </c>
       <c r="W14" t="n">
-        <v>2297.855323089771</v>
+        <v>2423.808584301945</v>
       </c>
       <c r="X14" t="n">
-        <v>2297.855323089771</v>
+        <v>2423.808584301945</v>
       </c>
       <c r="Y14" t="n">
-        <v>2297.855323089771</v>
+        <v>2030.266728877783</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D15" t="n">
         <v>620.3170860732707</v>
@@ -5345,7 +5345,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
@@ -5369,16 +5369,16 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122672</v>
+        <v>2342.651863910041</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
         <v>50.85391747321462</v>
@@ -5457,31 +5457,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>115.9505818408994</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U16" t="n">
-        <v>115.9505818408994</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V16" t="n">
-        <v>115.9505818408994</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.9505818408994</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1723.700306204262</v>
+        <v>1661.884114449617</v>
       </c>
       <c r="C17" t="n">
-        <v>1723.700306204262</v>
+        <v>1661.884114449617</v>
       </c>
       <c r="D17" t="n">
-        <v>1350.876341431485</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="E17" t="n">
-        <v>1350.876341431485</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F17" t="n">
-        <v>936.7251507416557</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G17" t="n">
-        <v>521.6261404795964</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H17" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I17" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J17" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603402</v>
       </c>
       <c r="K17" t="n">
-        <v>586.0546590956333</v>
+        <v>586.0546590956335</v>
       </c>
       <c r="L17" t="n">
         <v>1089.376830460402</v>
@@ -5539,28 +5539,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R17" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="S17" t="n">
-        <v>3059.373918229416</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="T17" t="n">
-        <v>2839.414255642554</v>
+        <v>3086.304588053611</v>
       </c>
       <c r="U17" t="n">
-        <v>2584.609317459248</v>
+        <v>2831.499649870305</v>
       </c>
       <c r="V17" t="n">
-        <v>2247.63004335519</v>
+        <v>2831.499649870305</v>
       </c>
       <c r="W17" t="n">
-        <v>1885.095113212791</v>
+        <v>2831.499649870305</v>
       </c>
       <c r="X17" t="n">
-        <v>1885.095113212791</v>
+        <v>2449.469509391798</v>
       </c>
       <c r="Y17" t="n">
-        <v>1885.095113212791</v>
+        <v>2055.927653967636</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J18" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K18" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="L18" t="n">
-        <v>326.6322537197378</v>
+        <v>655.3190899643348</v>
       </c>
       <c r="M18" t="n">
-        <v>945.1977425644553</v>
+        <v>1273.884578809052</v>
       </c>
       <c r="N18" t="n">
-        <v>1593.529722307103</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O18" t="n">
-        <v>2111.11859027128</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P18" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q18" t="n">
         <v>2513.850170066159</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8030898822592</v>
+        <v>393.5383943238366</v>
       </c>
       <c r="C19" t="n">
-        <v>65.02422883105832</v>
+        <v>393.5383943238366</v>
       </c>
       <c r="D19" t="n">
-        <v>65.02422883105832</v>
+        <v>393.5383943238366</v>
       </c>
       <c r="E19" t="n">
-        <v>65.02422883105832</v>
+        <v>388.8578229882817</v>
       </c>
       <c r="F19" t="n">
-        <v>65.02422883105832</v>
+        <v>388.8578229882817</v>
       </c>
       <c r="G19" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="H19" t="n">
         <v>65.02422883105832</v>
@@ -5709,16 +5709,16 @@
         <v>679.6947958064375</v>
       </c>
       <c r="V19" t="n">
-        <v>418.9594913648601</v>
+        <v>679.6947958064375</v>
       </c>
       <c r="W19" t="n">
-        <v>132.8030898822592</v>
+        <v>393.5383943238366</v>
       </c>
       <c r="X19" t="n">
-        <v>132.8030898822592</v>
+        <v>393.5383943238366</v>
       </c>
       <c r="Y19" t="n">
-        <v>132.8030898822592</v>
+        <v>393.5383943238366</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1099.767318682597</v>
+        <v>1889.758382808728</v>
       </c>
       <c r="C20" t="n">
-        <v>717.8335600154039</v>
+        <v>1507.824624141535</v>
       </c>
       <c r="D20" t="n">
-        <v>345.0095952426275</v>
+        <v>1135.000659368759</v>
       </c>
       <c r="E20" t="n">
-        <v>345.0095952426275</v>
+        <v>740.2149394748656</v>
       </c>
       <c r="F20" t="n">
-        <v>345.0095952426275</v>
+        <v>326.0637487850359</v>
       </c>
       <c r="G20" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H20" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I20" t="n">
         <v>65.02422883105832</v>
@@ -5755,7 +5755,7 @@
         <v>220.6214864603401</v>
       </c>
       <c r="K20" t="n">
-        <v>586.0546590956334</v>
+        <v>586.0546590956333</v>
       </c>
       <c r="L20" t="n">
         <v>1089.376830460402</v>
@@ -5779,25 +5779,25 @@
         <v>3223.701996533048</v>
       </c>
       <c r="S20" t="n">
-        <v>3223.701996533048</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T20" t="n">
-        <v>3223.701996533048</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="U20" t="n">
-        <v>2968.897058349742</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="V20" t="n">
-        <v>2631.917784245683</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="W20" t="n">
-        <v>2269.382854103284</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="X20" t="n">
-        <v>1887.352713624778</v>
+        <v>2677.343777750909</v>
       </c>
       <c r="Y20" t="n">
-        <v>1493.810858200616</v>
+        <v>2283.801922326747</v>
       </c>
     </row>
     <row r="21">
@@ -5837,13 +5837,13 @@
         <v>489.6601924881446</v>
       </c>
       <c r="L21" t="n">
-        <v>718.5019857524649</v>
+        <v>969.9100861217185</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.067474597182</v>
+        <v>989.1131579201862</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.485818559677</v>
+        <v>1637.445137662834</v>
       </c>
       <c r="O21" t="n">
         <v>1886.074686523854</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="C22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="D22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="E22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="F22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K22" t="n">
-        <v>2434.311662932989</v>
+        <v>149.9606677285005</v>
       </c>
       <c r="L22" t="n">
-        <v>2600.606350733317</v>
+        <v>316.2553555288283</v>
       </c>
       <c r="M22" t="n">
-        <v>2787.858229836482</v>
+        <v>503.5072346319942</v>
       </c>
       <c r="N22" t="n">
-        <v>2973.892135252363</v>
+        <v>689.5411400478749</v>
       </c>
       <c r="O22" t="n">
-        <v>3134.806004042553</v>
+        <v>850.4550088380651</v>
       </c>
       <c r="P22" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="Q22" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="R22" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="S22" t="n">
-        <v>3251.211441552916</v>
+        <v>966.8604463484278</v>
       </c>
       <c r="T22" t="n">
-        <v>3251.211441552916</v>
+        <v>735.6076290620449</v>
       </c>
       <c r="U22" t="n">
-        <v>3088.819248430495</v>
+        <v>735.6076290620449</v>
       </c>
       <c r="V22" t="n">
-        <v>3088.819248430495</v>
+        <v>474.8723246204675</v>
       </c>
       <c r="W22" t="n">
-        <v>2802.662846947894</v>
+        <v>188.7159231378666</v>
       </c>
       <c r="X22" t="n">
-        <v>2571.410382843269</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="Y22" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1528.65613379706</v>
+        <v>1889.758382808728</v>
       </c>
       <c r="C23" t="n">
-        <v>1528.65613379706</v>
+        <v>1507.824624141535</v>
       </c>
       <c r="D23" t="n">
-        <v>1528.65613379706</v>
+        <v>1423.13300028867</v>
       </c>
       <c r="E23" t="n">
-        <v>1350.876341431485</v>
+        <v>1028.347280394777</v>
       </c>
       <c r="F23" t="n">
-        <v>936.7251507416557</v>
+        <v>614.196089704947</v>
       </c>
       <c r="G23" t="n">
-        <v>521.6261404795964</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="H23" t="n">
         <v>199.0970794428877</v>
@@ -5989,16 +5989,16 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J23" t="n">
-        <v>220.6214864603398</v>
+        <v>220.6214864603403</v>
       </c>
       <c r="K23" t="n">
-        <v>586.0546590956333</v>
+        <v>586.0546590956337</v>
       </c>
       <c r="L23" t="n">
-        <v>1089.376830460402</v>
+        <v>1089.376830460403</v>
       </c>
       <c r="M23" t="n">
-        <v>1655.569384264474</v>
+        <v>1655.569384264475</v>
       </c>
       <c r="N23" t="n">
         <v>2209.652697130949</v>
@@ -6016,25 +6016,25 @@
         <v>3223.701996533048</v>
       </c>
       <c r="S23" t="n">
-        <v>3223.701996533048</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.742333946186</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="U23" t="n">
-        <v>3003.742333946186</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="V23" t="n">
-        <v>2666.763059842127</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="W23" t="n">
-        <v>2304.228129699728</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="X23" t="n">
-        <v>1922.197989221222</v>
+        <v>2677.343777750909</v>
       </c>
       <c r="Y23" t="n">
-        <v>1528.65613379706</v>
+        <v>2283.801922326747</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J24" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K24" t="n">
-        <v>379.6152249884421</v>
+        <v>489.6601924881446</v>
       </c>
       <c r="L24" t="n">
-        <v>859.8651186220161</v>
+        <v>969.9100861217186</v>
       </c>
       <c r="M24" t="n">
-        <v>1478.430607466734</v>
+        <v>1588.475574966436</v>
       </c>
       <c r="N24" t="n">
-        <v>1996.261302101981</v>
+        <v>1619.89391892893</v>
       </c>
       <c r="O24" t="n">
-        <v>2513.850170066159</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P24" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q24" t="n">
         <v>2513.850170066159</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.5469409012979</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="C25" t="n">
-        <v>112.5469409012979</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="D25" t="n">
-        <v>112.5469409012979</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="E25" t="n">
-        <v>112.5469409012979</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="F25" t="n">
-        <v>93.21006554823494</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G25" t="n">
-        <v>93.21006554823494</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H25" t="n">
-        <v>93.21006554823494</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I25" t="n">
-        <v>93.21006554823494</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J25" t="n">
         <v>65.02422883105832</v>
@@ -6168,31 +6168,31 @@
         <v>966.860446348428</v>
       </c>
       <c r="Q25" t="n">
-        <v>966.0712704402218</v>
+        <v>966.860446348428</v>
       </c>
       <c r="R25" t="n">
-        <v>836.8189957592865</v>
+        <v>966.860446348428</v>
       </c>
       <c r="S25" t="n">
-        <v>630.9654087296711</v>
+        <v>966.860446348428</v>
       </c>
       <c r="T25" t="n">
-        <v>399.7125914432883</v>
+        <v>899.0815852972269</v>
       </c>
       <c r="U25" t="n">
-        <v>112.5469409012979</v>
+        <v>611.9159347552365</v>
       </c>
       <c r="V25" t="n">
-        <v>112.5469409012979</v>
+        <v>351.1806303136592</v>
       </c>
       <c r="W25" t="n">
-        <v>112.5469409012979</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="X25" t="n">
-        <v>112.5469409012979</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.5469409012979</v>
+        <v>65.02422883105832</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2118.486026098155</v>
+        <v>1661.884114449617</v>
       </c>
       <c r="C26" t="n">
-        <v>2118.486026098155</v>
+        <v>1661.884114449617</v>
       </c>
       <c r="D26" t="n">
-        <v>1745.662061325379</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="E26" t="n">
-        <v>1350.876341431485</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F26" t="n">
-        <v>936.7251507416557</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G26" t="n">
-        <v>521.6261404795964</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H26" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I26" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J26" t="n">
-        <v>220.6214864603399</v>
+        <v>220.6214864603401</v>
       </c>
       <c r="K26" t="n">
-        <v>586.0546590956333</v>
+        <v>586.0546590956335</v>
       </c>
       <c r="L26" t="n">
         <v>1089.376830460402</v>
@@ -6250,28 +6250,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R26" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="S26" t="n">
-        <v>3059.373918229416</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="T26" t="n">
-        <v>2839.414255642554</v>
+        <v>3031.251778966054</v>
       </c>
       <c r="U26" t="n">
-        <v>2584.609317459248</v>
+        <v>3031.251778966054</v>
       </c>
       <c r="V26" t="n">
-        <v>2584.609317459248</v>
+        <v>2831.499649870305</v>
       </c>
       <c r="W26" t="n">
-        <v>2584.609317459248</v>
+        <v>2831.499649870305</v>
       </c>
       <c r="X26" t="n">
-        <v>2584.609317459248</v>
+        <v>2449.469509391798</v>
       </c>
       <c r="Y26" t="n">
-        <v>2191.067462035086</v>
+        <v>2055.927653967636</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J27" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K27" t="n">
-        <v>65.02422883105832</v>
+        <v>489.6601924881446</v>
       </c>
       <c r="L27" t="n">
-        <v>545.2741224646322</v>
+        <v>969.9100861217186</v>
       </c>
       <c r="M27" t="n">
-        <v>1163.83961130935</v>
+        <v>1337.067474597182</v>
       </c>
       <c r="N27" t="n">
-        <v>1812.171591051997</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O27" t="n">
-        <v>2329.760459016175</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P27" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q27" t="n">
         <v>2513.850170066159</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2802.709412951128</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="C28" t="n">
-        <v>2633.093443412808</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="D28" t="n">
-        <v>2480.021550240571</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="E28" t="n">
-        <v>2480.021550240571</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="F28" t="n">
-        <v>2480.021550240571</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G28" t="n">
-        <v>2480.021550240571</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H28" t="n">
-        <v>2480.021550240571</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I28" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J28" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K28" t="n">
-        <v>2434.311662932989</v>
+        <v>149.9606677285005</v>
       </c>
       <c r="L28" t="n">
-        <v>2600.606350733317</v>
+        <v>316.2553555288283</v>
       </c>
       <c r="M28" t="n">
-        <v>2787.858229836482</v>
+        <v>503.5072346319943</v>
       </c>
       <c r="N28" t="n">
-        <v>2973.892135252363</v>
+        <v>689.541140047875</v>
       </c>
       <c r="O28" t="n">
-        <v>3134.806004042553</v>
+        <v>850.4550088380652</v>
       </c>
       <c r="P28" t="n">
-        <v>3251.211441552916</v>
+        <v>966.860446348428</v>
       </c>
       <c r="Q28" t="n">
-        <v>3251.211441552916</v>
+        <v>966.860446348428</v>
       </c>
       <c r="R28" t="n">
-        <v>3251.211441552916</v>
+        <v>966.860446348428</v>
       </c>
       <c r="S28" t="n">
-        <v>3251.211441552916</v>
+        <v>966.860446348428</v>
       </c>
       <c r="T28" t="n">
-        <v>3251.211441552916</v>
+        <v>899.0815852972269</v>
       </c>
       <c r="U28" t="n">
-        <v>3251.211441552916</v>
+        <v>611.9159347552365</v>
       </c>
       <c r="V28" t="n">
-        <v>3251.211441552916</v>
+        <v>351.1806303136592</v>
       </c>
       <c r="W28" t="n">
-        <v>3251.211441552916</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="X28" t="n">
-        <v>3208.299940443231</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="Y28" t="n">
-        <v>2986.264781635508</v>
+        <v>65.02422883105832</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2085.59507048798</v>
+        <v>1460.044648413009</v>
       </c>
       <c r="C29" t="n">
-        <v>2085.59507048798</v>
+        <v>1460.044648413009</v>
       </c>
       <c r="D29" t="n">
-        <v>1745.662061325379</v>
+        <v>1460.044648413009</v>
       </c>
       <c r="E29" t="n">
         <v>1350.876341431485</v>
@@ -6463,10 +6463,10 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J29" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603399</v>
       </c>
       <c r="K29" t="n">
-        <v>586.0546590956335</v>
+        <v>586.0546590956333</v>
       </c>
       <c r="L29" t="n">
         <v>1089.376830460402</v>
@@ -6490,25 +6490,25 @@
         <v>3223.701996533048</v>
       </c>
       <c r="S29" t="n">
-        <v>3223.701996533048</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T29" t="n">
-        <v>3223.701996533048</v>
+        <v>2839.414255642554</v>
       </c>
       <c r="U29" t="n">
-        <v>3223.701996533048</v>
+        <v>2584.609317459248</v>
       </c>
       <c r="V29" t="n">
-        <v>3223.701996533048</v>
+        <v>2247.63004335519</v>
       </c>
       <c r="W29" t="n">
-        <v>2861.167066390649</v>
+        <v>2247.63004335519</v>
       </c>
       <c r="X29" t="n">
-        <v>2479.136925912142</v>
+        <v>2247.63004335519</v>
       </c>
       <c r="Y29" t="n">
-        <v>2085.59507048798</v>
+        <v>1854.088187931028</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K30" t="n">
-        <v>220.7008733849874</v>
+        <v>379.6152249884421</v>
       </c>
       <c r="L30" t="n">
-        <v>700.9507670185614</v>
+        <v>382.5935942164641</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1538388170291</v>
+        <v>1001.159083061182</v>
       </c>
       <c r="N30" t="n">
-        <v>1368.485818559677</v>
+        <v>1649.491062803829</v>
       </c>
       <c r="O30" t="n">
         <v>1886.074686523854</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>449.4512275794443</v>
+        <v>188.7159231378669</v>
       </c>
       <c r="C31" t="n">
-        <v>449.4512275794443</v>
+        <v>188.7159231378669</v>
       </c>
       <c r="D31" t="n">
-        <v>449.4512275794443</v>
+        <v>188.7159231378669</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4512275794443</v>
+        <v>188.7159231378669</v>
       </c>
       <c r="F31" t="n">
-        <v>379.2210350416797</v>
+        <v>188.7159231378669</v>
       </c>
       <c r="G31" t="n">
-        <v>379.2210350416797</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H31" t="n">
-        <v>223.8563917532591</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I31" t="n">
-        <v>93.21006554823494</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J31" t="n">
         <v>65.02422883105832</v>
@@ -6657,16 +6657,16 @@
         <v>735.6076290620451</v>
       </c>
       <c r="V31" t="n">
-        <v>735.6076290620451</v>
+        <v>474.8723246204677</v>
       </c>
       <c r="W31" t="n">
-        <v>449.4512275794443</v>
+        <v>188.7159231378669</v>
       </c>
       <c r="X31" t="n">
-        <v>449.4512275794443</v>
+        <v>188.7159231378669</v>
       </c>
       <c r="Y31" t="n">
-        <v>449.4512275794443</v>
+        <v>188.7159231378669</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1984.413175486326</v>
+        <v>1783.105003834746</v>
       </c>
       <c r="C32" t="n">
-        <v>1984.413175486326</v>
+        <v>1401.171245167553</v>
       </c>
       <c r="D32" t="n">
-        <v>1611.589210713549</v>
+        <v>1028.347280394777</v>
       </c>
       <c r="E32" t="n">
-        <v>1216.803490819656</v>
+        <v>1028.347280394777</v>
       </c>
       <c r="F32" t="n">
-        <v>802.6523001298265</v>
+        <v>614.196089704947</v>
       </c>
       <c r="G32" t="n">
-        <v>387.5532898677671</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="H32" t="n">
-        <v>65.02422883105832</v>
+        <v>199.0970794428877</v>
       </c>
       <c r="I32" t="n">
         <v>65.02422883105832</v>
       </c>
       <c r="J32" t="n">
-        <v>220.6214864603403</v>
+        <v>220.6214864603398</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0546590956337</v>
+        <v>586.054659095633</v>
       </c>
       <c r="L32" t="n">
-        <v>1089.376830460403</v>
+        <v>1089.376830460402</v>
       </c>
       <c r="M32" t="n">
-        <v>1655.569384264475</v>
+        <v>1655.569384264474</v>
       </c>
       <c r="N32" t="n">
         <v>2209.652697130949</v>
@@ -6730,22 +6730,22 @@
         <v>3223.701996533048</v>
       </c>
       <c r="T32" t="n">
-        <v>3223.701996533048</v>
+        <v>3003.742333946186</v>
       </c>
       <c r="U32" t="n">
-        <v>3223.701996533048</v>
+        <v>2748.93739576288</v>
       </c>
       <c r="V32" t="n">
-        <v>3223.701996533048</v>
+        <v>2411.958121658822</v>
       </c>
       <c r="W32" t="n">
-        <v>3154.028710907014</v>
+        <v>2049.423191516423</v>
       </c>
       <c r="X32" t="n">
-        <v>2771.998570428507</v>
+        <v>2049.423191516423</v>
       </c>
       <c r="Y32" t="n">
-        <v>2378.456715004345</v>
+        <v>1783.105003834746</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J33" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K33" t="n">
-        <v>323.6538844917157</v>
+        <v>489.6601924881446</v>
       </c>
       <c r="L33" t="n">
-        <v>326.6322537197377</v>
+        <v>969.9100861217186</v>
       </c>
       <c r="M33" t="n">
-        <v>945.1977425644552</v>
+        <v>1337.067474597182</v>
       </c>
       <c r="N33" t="n">
-        <v>1593.529722307103</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.11859027128</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P33" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q33" t="n">
         <v>2513.850170066159</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.02422883105832</v>
+        <v>561.2699188563253</v>
       </c>
       <c r="C34" t="n">
-        <v>65.02422883105832</v>
+        <v>561.2699188563253</v>
       </c>
       <c r="D34" t="n">
-        <v>65.02422883105832</v>
+        <v>408.198025684088</v>
       </c>
       <c r="E34" t="n">
-        <v>65.02422883105832</v>
+        <v>256.1890114454068</v>
       </c>
       <c r="F34" t="n">
-        <v>65.02422883105832</v>
+        <v>256.1890114454068</v>
       </c>
       <c r="G34" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="H34" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="I34" t="n">
         <v>65.02422883105832</v>
@@ -6891,19 +6891,19 @@
         <v>966.860446348428</v>
       </c>
       <c r="U34" t="n">
-        <v>679.6947958064377</v>
+        <v>966.860446348428</v>
       </c>
       <c r="V34" t="n">
-        <v>418.9594913648603</v>
+        <v>966.860446348428</v>
       </c>
       <c r="W34" t="n">
-        <v>132.8030898822594</v>
+        <v>966.860446348428</v>
       </c>
       <c r="X34" t="n">
-        <v>65.02422883105832</v>
+        <v>966.860446348428</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.02422883105832</v>
+        <v>744.8252875407051</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.33901852432</v>
+        <v>2108.893126114334</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.33901852432</v>
+        <v>2108.893126114334</v>
       </c>
       <c r="D35" t="n">
-        <v>1632.515053751544</v>
+        <v>1736.069161341557</v>
       </c>
       <c r="E35" t="n">
-        <v>1237.72933385765</v>
+        <v>1341.283441447664</v>
       </c>
       <c r="F35" t="n">
-        <v>823.5781431678206</v>
+        <v>927.1322507578345</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4791329057613</v>
+        <v>512.0332404957752</v>
       </c>
       <c r="H35" t="n">
-        <v>85.95007186905252</v>
+        <v>189.5041794590664</v>
       </c>
       <c r="I35" t="n">
         <v>65.02422883105832</v>
@@ -6961,28 +6961,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R35" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="S35" t="n">
-        <v>3086.883363249284</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T35" t="n">
-        <v>3086.883363249284</v>
+        <v>2839.414255642555</v>
       </c>
       <c r="U35" t="n">
-        <v>3086.883363249284</v>
+        <v>2839.414255642555</v>
       </c>
       <c r="V35" t="n">
-        <v>2749.904089145225</v>
+        <v>2502.434981538496</v>
       </c>
       <c r="W35" t="n">
-        <v>2387.369159002827</v>
+        <v>2502.434981538496</v>
       </c>
       <c r="X35" t="n">
-        <v>2005.33901852432</v>
+        <v>2502.434981538496</v>
       </c>
       <c r="Y35" t="n">
-        <v>2005.33901852432</v>
+        <v>2108.893126114334</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K36" t="n">
-        <v>65.02422883105832</v>
+        <v>323.6538844917157</v>
       </c>
       <c r="L36" t="n">
-        <v>545.2741224646322</v>
+        <v>326.6322537197377</v>
       </c>
       <c r="M36" t="n">
-        <v>1163.83961130935</v>
+        <v>945.1977425644552</v>
       </c>
       <c r="N36" t="n">
-        <v>1812.171591051997</v>
+        <v>1593.529722307103</v>
       </c>
       <c r="O36" t="n">
-        <v>2329.760459016175</v>
+        <v>2111.11859027128</v>
       </c>
       <c r="P36" t="n">
         <v>2513.850170066159</v>
@@ -7119,22 +7119,22 @@
         <v>966.860446348428</v>
       </c>
       <c r="R37" t="n">
-        <v>843.1683988598609</v>
+        <v>966.860446348428</v>
       </c>
       <c r="S37" t="n">
-        <v>843.1683988598609</v>
+        <v>843.1687520416194</v>
       </c>
       <c r="T37" t="n">
-        <v>843.1683988598609</v>
+        <v>611.9159347552365</v>
       </c>
       <c r="U37" t="n">
-        <v>843.1683988598609</v>
+        <v>611.9159347552365</v>
       </c>
       <c r="V37" t="n">
-        <v>582.4330944182834</v>
+        <v>351.1806303136592</v>
       </c>
       <c r="W37" t="n">
-        <v>296.2766929356825</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="X37" t="n">
         <v>65.02422883105832</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>769.4870485349597</v>
+        <v>2411.958121658822</v>
       </c>
       <c r="C38" t="n">
-        <v>387.5532898677671</v>
+        <v>2030.024362991629</v>
       </c>
       <c r="D38" t="n">
-        <v>387.5532898677671</v>
+        <v>1657.200398218853</v>
       </c>
       <c r="E38" t="n">
-        <v>387.5532898677671</v>
+        <v>1262.41467832496</v>
       </c>
       <c r="F38" t="n">
-        <v>387.5532898677671</v>
+        <v>848.2634876351301</v>
       </c>
       <c r="G38" t="n">
-        <v>387.5532898677671</v>
+        <v>433.1644773730708</v>
       </c>
       <c r="H38" t="n">
-        <v>65.02422883105832</v>
+        <v>110.635416336362</v>
       </c>
       <c r="I38" t="n">
         <v>65.02422883105832</v>
@@ -7198,28 +7198,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R38" t="n">
-        <v>3251.211441552916</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="S38" t="n">
-        <v>3086.883363249284</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="T38" t="n">
-        <v>2866.923700662423</v>
+        <v>3003.742333946187</v>
       </c>
       <c r="U38" t="n">
-        <v>2612.118762479117</v>
+        <v>2748.937395762881</v>
       </c>
       <c r="V38" t="n">
-        <v>2301.637514098047</v>
+        <v>2411.958121658822</v>
       </c>
       <c r="W38" t="n">
-        <v>1939.102583955648</v>
+        <v>2411.958121658822</v>
       </c>
       <c r="X38" t="n">
-        <v>1557.072443477141</v>
+        <v>2411.958121658822</v>
       </c>
       <c r="Y38" t="n">
-        <v>1163.530588052979</v>
+        <v>2411.958121658822</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J39" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K39" t="n">
-        <v>65.02422883105832</v>
+        <v>353.2831649953146</v>
       </c>
       <c r="L39" t="n">
-        <v>545.2741224646322</v>
+        <v>833.5330586288885</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.83961130935</v>
+        <v>1452.098547473606</v>
       </c>
       <c r="N39" t="n">
-        <v>1368.485818559677</v>
+        <v>2100.430527216254</v>
       </c>
       <c r="O39" t="n">
-        <v>1886.074686523854</v>
+        <v>2111.11859027128</v>
       </c>
       <c r="P39" t="n">
-        <v>2288.806266318732</v>
+        <v>2513.850170066159</v>
       </c>
       <c r="Q39" t="n">
         <v>2513.850170066159</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2845.620914060813</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="C40" t="n">
-        <v>2676.004944522494</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="D40" t="n">
-        <v>2522.933051350256</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="E40" t="n">
-        <v>2370.924037111575</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="F40" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="G40" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H40" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I40" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J40" t="n">
-        <v>2349.375224035547</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K40" t="n">
-        <v>2434.311662932989</v>
+        <v>149.9606677285005</v>
       </c>
       <c r="L40" t="n">
-        <v>2600.606350733317</v>
+        <v>316.2553555288283</v>
       </c>
       <c r="M40" t="n">
-        <v>2787.858229836483</v>
+        <v>503.5072346319943</v>
       </c>
       <c r="N40" t="n">
-        <v>2973.892135252363</v>
+        <v>689.541140047875</v>
       </c>
       <c r="O40" t="n">
-        <v>3134.806004042553</v>
+        <v>850.4550088380652</v>
       </c>
       <c r="P40" t="n">
-        <v>3251.211441552916</v>
+        <v>966.860446348428</v>
       </c>
       <c r="Q40" t="n">
-        <v>3251.211441552916</v>
+        <v>966.860446348428</v>
       </c>
       <c r="R40" t="n">
-        <v>3251.211441552916</v>
+        <v>966.860446348428</v>
       </c>
       <c r="S40" t="n">
-        <v>3251.211441552916</v>
+        <v>761.0068593188126</v>
       </c>
       <c r="T40" t="n">
-        <v>3251.211441552916</v>
+        <v>529.7540420324298</v>
       </c>
       <c r="U40" t="n">
-        <v>3251.211441552916</v>
+        <v>529.7540420324298</v>
       </c>
       <c r="V40" t="n">
-        <v>3251.211441552916</v>
+        <v>269.0187375908524</v>
       </c>
       <c r="W40" t="n">
-        <v>3251.211441552916</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="X40" t="n">
-        <v>3251.211441552916</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="Y40" t="n">
-        <v>3029.176282745193</v>
+        <v>65.02422883105832</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1404.588947615664</v>
+        <v>1767.123877758062</v>
       </c>
       <c r="C41" t="n">
-        <v>1022.655188948471</v>
+        <v>1385.19011909087</v>
       </c>
       <c r="D41" t="n">
-        <v>649.8312241756944</v>
+        <v>1012.366154318093</v>
       </c>
       <c r="E41" t="n">
-        <v>600.0257783471033</v>
+        <v>1012.366154318093</v>
       </c>
       <c r="F41" t="n">
-        <v>600.0257783471033</v>
+        <v>598.2149636282636</v>
       </c>
       <c r="G41" t="n">
-        <v>184.9267680850439</v>
+        <v>183.1159533662043</v>
       </c>
       <c r="H41" t="n">
-        <v>184.9267680850439</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I41" t="n">
         <v>50.85391747321462</v>
@@ -7414,16 +7414,16 @@
         <v>206.4511751024964</v>
       </c>
       <c r="K41" t="n">
-        <v>571.8843477377898</v>
+        <v>206.4511751024964</v>
       </c>
       <c r="L41" t="n">
-        <v>571.8843477377898</v>
+        <v>380.8612625682173</v>
       </c>
       <c r="M41" t="n">
-        <v>1138.076901541862</v>
+        <v>947.0538163722894</v>
       </c>
       <c r="N41" t="n">
-        <v>1692.160214408336</v>
+        <v>1501.137129238764</v>
       </c>
       <c r="O41" t="n">
         <v>1972.09930030393</v>
@@ -7450,13 +7450,13 @@
         <v>2542.695873660731</v>
       </c>
       <c r="W41" t="n">
-        <v>2180.160943518332</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X41" t="n">
-        <v>1798.130803039826</v>
+        <v>2160.665733182224</v>
       </c>
       <c r="Y41" t="n">
-        <v>1404.588947615664</v>
+        <v>1767.123877758062</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
-        <v>160.8988849729172</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K42" t="n">
-        <v>160.8988849729172</v>
+        <v>365.4449136305984</v>
       </c>
       <c r="L42" t="n">
-        <v>163.8772542009392</v>
+        <v>845.6948072641724</v>
       </c>
       <c r="M42" t="n">
-        <v>724.9982784708021</v>
+        <v>1464.26029610889</v>
       </c>
       <c r="N42" t="n">
-        <v>1354.315507201833</v>
+        <v>1579.359410949259</v>
       </c>
       <c r="O42" t="n">
-        <v>1871.904375166011</v>
+        <v>2096.948278913437</v>
       </c>
       <c r="P42" t="n">
-        <v>2274.635954960889</v>
+        <v>2499.679858708315</v>
       </c>
       <c r="Q42" t="n">
         <v>2499.679858708315</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>356.4064656196748</v>
+        <v>373.5417801837716</v>
       </c>
       <c r="C43" t="n">
-        <v>356.4064656196748</v>
+        <v>203.9258106454519</v>
       </c>
       <c r="D43" t="n">
-        <v>203.3345724474375</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E43" t="n">
-        <v>203.3345724474375</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F43" t="n">
         <v>50.85391747321462</v>
@@ -7590,31 +7590,31 @@
         <v>952.6901349905843</v>
       </c>
       <c r="Q43" t="n">
-        <v>951.9009590823781</v>
+        <v>952.6901349905843</v>
       </c>
       <c r="R43" t="n">
-        <v>822.6486844014428</v>
+        <v>952.6901349905843</v>
       </c>
       <c r="S43" t="n">
-        <v>616.7950973718274</v>
+        <v>817.8324533097289</v>
       </c>
       <c r="T43" t="n">
-        <v>385.5422800854445</v>
+        <v>817.8324533097289</v>
       </c>
       <c r="U43" t="n">
-        <v>385.5422800854445</v>
+        <v>817.8324533097289</v>
       </c>
       <c r="V43" t="n">
-        <v>356.4064656196748</v>
+        <v>557.0971488681514</v>
       </c>
       <c r="W43" t="n">
-        <v>356.4064656196748</v>
+        <v>557.0971488681514</v>
       </c>
       <c r="X43" t="n">
-        <v>356.4064656196748</v>
+        <v>557.0971488681514</v>
       </c>
       <c r="Y43" t="n">
-        <v>356.4064656196748</v>
+        <v>557.0971488681514</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1543.239712211952</v>
+        <v>1377.079502595795</v>
       </c>
       <c r="C44" t="n">
-        <v>1161.305953544759</v>
+        <v>1377.079502595795</v>
       </c>
       <c r="D44" t="n">
-        <v>788.4819887719827</v>
+        <v>1274.889838318997</v>
       </c>
       <c r="E44" t="n">
-        <v>788.4819887719827</v>
+        <v>880.1041184251036</v>
       </c>
       <c r="F44" t="n">
-        <v>788.4819887719827</v>
+        <v>465.9529277352739</v>
       </c>
       <c r="G44" t="n">
-        <v>373.3829785099234</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H44" t="n">
         <v>50.85391747321462</v>
@@ -7648,22 +7648,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J44" t="n">
-        <v>50.85391747321462</v>
+        <v>82.70249192495601</v>
       </c>
       <c r="K44" t="n">
-        <v>416.287090108508</v>
+        <v>448.1356645602494</v>
       </c>
       <c r="L44" t="n">
-        <v>581.6599788768742</v>
+        <v>951.4578359250183</v>
       </c>
       <c r="M44" t="n">
-        <v>1147.852532680946</v>
+        <v>1517.65038972909</v>
       </c>
       <c r="N44" t="n">
-        <v>1701.935845547421</v>
+        <v>2071.733702595565</v>
       </c>
       <c r="O44" t="n">
-        <v>2172.898016612587</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="P44" t="n">
         <v>2542.695873660731</v>
@@ -7672,28 +7672,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.695873660731</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="S44" t="n">
-        <v>2542.695873660731</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="T44" t="n">
-        <v>2322.73621107387</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="U44" t="n">
-        <v>2322.73621107387</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="V44" t="n">
-        <v>2322.73621107387</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="W44" t="n">
-        <v>1960.201280931471</v>
+        <v>2152.651498498464</v>
       </c>
       <c r="X44" t="n">
-        <v>1960.201280931471</v>
+        <v>1770.621358019958</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.659425507309</v>
+        <v>1377.079502595795</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>160.8988849729172</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K45" t="n">
-        <v>475.489881130301</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="L45" t="n">
-        <v>478.468250358323</v>
+        <v>531.1038111067886</v>
       </c>
       <c r="M45" t="n">
-        <v>950.0421822182283</v>
+        <v>1149.669299951506</v>
       </c>
       <c r="N45" t="n">
-        <v>1579.359410949259</v>
+        <v>1778.986528682537</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.948278913437</v>
+        <v>2296.575396646715</v>
       </c>
       <c r="P45" t="n">
         <v>2499.679858708315</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>204.0284521169763</v>
+        <v>219.3228683420174</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0284521169763</v>
+        <v>219.3228683420174</v>
       </c>
       <c r="D46" t="n">
-        <v>202.8629317118958</v>
+        <v>219.3228683420174</v>
       </c>
       <c r="E46" t="n">
-        <v>50.85391747321462</v>
+        <v>219.3228683420174</v>
       </c>
       <c r="F46" t="n">
-        <v>50.85391747321462</v>
+        <v>219.3228683420174</v>
       </c>
       <c r="G46" t="n">
         <v>50.85391747321462</v>
@@ -7833,25 +7833,25 @@
         <v>952.6901349905843</v>
       </c>
       <c r="S46" t="n">
-        <v>952.6901349905843</v>
+        <v>746.8365479609689</v>
       </c>
       <c r="T46" t="n">
-        <v>721.4373177042014</v>
+        <v>689.0346385089981</v>
       </c>
       <c r="U46" t="n">
-        <v>721.4373177042014</v>
+        <v>689.0346385089981</v>
       </c>
       <c r="V46" t="n">
-        <v>721.4373177042014</v>
+        <v>689.0346385089981</v>
       </c>
       <c r="W46" t="n">
-        <v>435.2809162216005</v>
+        <v>402.8782370263972</v>
       </c>
       <c r="X46" t="n">
-        <v>204.0284521169763</v>
+        <v>402.8782370263972</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.0284521169763</v>
+        <v>402.8782370263972</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -8060,10 +8060,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
@@ -8072,10 +8072,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>367.9315448499079</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8294,7 +8294,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>111.9961691666667</v>
@@ -8309,13 +8309,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>453.9580732035297</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8534,16 +8534,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>547.3536410187818</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8552,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>101.168162993945</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
-        <v>78.99621350193966</v>
+        <v>281.8684094834668</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9017,13 +9017,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>295.5863090836201</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>86.44282166891928</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9242,19 +9242,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>52.76181311454911</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>26.03612512909586</v>
       </c>
       <c r="L18" t="n">
-        <v>261.2420764249065</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>63.82110685669713</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9263,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.78339956425417</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9485,16 +9485,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>228.1448727639377</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>240.3449351575696</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9716,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>52.7618131145491</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9728,16 +9728,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>491.3256067401547</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>258.0734389291891</v>
       </c>
       <c r="P24" t="n">
-        <v>7.202023681536403</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.78339956425415</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
         <v>421.3890363425141</v>
@@ -9953,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>52.7618131145491</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>26.03612512909585</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>351.4690067444405</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>193.151226762328</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.78339956425415</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10193,19 +10193,19 @@
         <v>52.7618131145491</v>
       </c>
       <c r="K30" t="n">
-        <v>183.2852610421555</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>228.1773340050489</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10427,19 +10427,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>52.7618131145491</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>287.2782015540023</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>351.4690067444405</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.78339956425415</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10667,10 +10667,10 @@
         <v>52.76181311454909</v>
       </c>
       <c r="K36" t="n">
-        <v>26.03612512909584</v>
+        <v>287.2782015540023</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10682,7 +10682,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>193.151226762328</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>45.78339956425415</v>
@@ -10843,7 +10843,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>26.03612512909584</v>
+        <v>206.0502348912712</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10913,16 +10913,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>174.9776396846795</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>45.78339956425415</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11062,10 +11062,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>52.26461953918751</v>
       </c>
       <c r="L41" t="n">
-        <v>34.55334521379871</v>
+        <v>210.7251507347289</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11074,7 +11074,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>302.0876243591727</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11138,19 +11138,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>52.76181311454909</v>
       </c>
       <c r="K42" t="n">
-        <v>26.03612512909584</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>547.3918711832275</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>603.9382674429663</v>
+        <v>84.5260311897727</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>45.78339956425415</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>62.65665262341128</v>
+        <v>94.82692984739248</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>201.5966672020474</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11314,7 +11314,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>44.80513168540827</v>
       </c>
       <c r="Q44" t="n">
         <v>73.18250168751544</v>
@@ -11375,25 +11375,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>52.76181311454909</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>26.03612512909584</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>456.9402626883208</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>603.9382674429663</v>
+        <v>603.9382674429662</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>212.3580459659811</v>
       </c>
       <c r="Q45" t="n">
         <v>45.78339956425415</v>
@@ -23260,13 +23260,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>271.4640901455512</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
-        <v>123.3865315529548</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
@@ -23439,7 +23439,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>105.2760496268156</v>
       </c>
       <c r="U13" t="n">
-        <v>267.2069220779493</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>125.1903958529707</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>325.5814052293737</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>102.744949517792</v>
       </c>
       <c r="U14" t="n">
         <v>252.305926837283</v>
@@ -23563,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23673,10 +23673,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I16" t="n">
-        <v>120.5065807525132</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>158.4557702430231</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.3222451843953</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>27.23435056966956</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>54.5022809966807</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>100.8187374022476</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>145.855158474095</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>129.3398629429739</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>266.4946295176964</v>
+        <v>152.5188954050009</v>
       </c>
       <c r="H20" t="n">
         <v>319.3037704263417</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7600659609929</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T22" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>123.5257228453733</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>106.4851620998378</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>285.2510175107119</v>
       </c>
       <c r="E23" t="n">
-        <v>214.8358682530356</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U23" t="n">
         <v>252.2568888014727</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>131.8123418249483</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.7842613601147</v>
@@ -24387,7 +24387,7 @@
         <v>129.3398629429739</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>27.90397835000485</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.781284149124069</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>161.8392166728299</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>318.2474825452768</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>27.23435056966954</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>135.8548735582263</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24621,7 +24621,7 @@
         <v>153.8109968555364</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J28" t="n">
         <v>27.90397835000485</v>
@@ -24654,22 +24654,22 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T28" t="n">
-        <v>228.9402891135191</v>
+        <v>161.8392166728299</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>186.4575533649897</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>32.56204605407311</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>282.7612387832461</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,19 +24849,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>81.42795781209371</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7842613601147</v>
+        <v>44.32948399637425</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>27.90397835000485</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>284.2939940365704</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I32" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>162.6847975205958</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>289.9330280712007</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>125.9514310650601</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7842613601147</v>
+        <v>106.8709895148836</v>
       </c>
       <c r="H34" t="n">
         <v>153.8109968555364</v>
       </c>
       <c r="I34" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>27.90397835000485</v>
@@ -25131,19 +25131,19 @@
         <v>228.9402891135191</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>161.8388670228889</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>112.0155374980968</v>
+        <v>9.49697098398299</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>252.2568888014727</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25359,13 +25359,13 @@
         <v>0.7812841491240619</v>
       </c>
       <c r="R37" t="n">
-        <v>5.504624920444556</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S37" t="n">
-        <v>203.7950511593192</v>
+        <v>81.34027379557868</v>
       </c>
       <c r="T37" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>284.2939940365704</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>132.732122105711</v>
+        <v>87.57704647546036</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>26.23304546575866</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>129.6225234792128</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.7842613601147</v>
@@ -25599,25 +25599,25 @@
         <v>127.959751934126</v>
       </c>
       <c r="S40" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>81.34027379557878</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>341.530471324649</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>319.3037704263417</v>
+        <v>188.3643548922819</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.7842613601147</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.7812841491240619</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>70.28594629527231</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U43" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V43" t="n">
-        <v>229.2834950760496</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>366.9175879604357</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>267.9279574910179</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I44" t="n">
         <v>132.732122105711</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>162.6847975205958</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U44" t="n">
         <v>252.2568888014727</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>150.3873090394852</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.8109968555364</v>
@@ -26073,10 +26073,10 @@
         <v>127.959751934126</v>
       </c>
       <c r="S46" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>171.716398756068</v>
       </c>
       <c r="U46" t="n">
         <v>284.2939940365704</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>922812.1837089562</v>
+        <v>922812.1837089561</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634740.7010702323</v>
+        <v>634740.7010702321</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634740.7010702323</v>
+        <v>634740.7010702322</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>706208.1221472388</v>
+        <v>706208.1221472389</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>706208.122147239</v>
+        <v>706208.1221472388</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>706208.122147239</v>
+        <v>706208.1221472392</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>706208.1221472392</v>
+        <v>706208.122147239</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636249.291481084</v>
+        <v>636249.2914810842</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>498955.6393212182</v>
+        <v>498955.6393212183</v>
       </c>
       <c r="C2" t="n">
-        <v>498955.639321218</v>
+        <v>498955.6393212183</v>
       </c>
       <c r="D2" t="n">
         <v>498955.639321218</v>
       </c>
       <c r="E2" t="n">
-        <v>328198.0783000842</v>
+        <v>328198.0783000845</v>
       </c>
       <c r="F2" t="n">
         <v>328198.0783000842</v>
       </c>
       <c r="G2" t="n">
+        <v>372838.2834168501</v>
+      </c>
+      <c r="H2" t="n">
+        <v>372838.2834168498</v>
+      </c>
+      <c r="I2" t="n">
         <v>372838.2834168499</v>
       </c>
-      <c r="H2" t="n">
-        <v>372838.28341685</v>
-      </c>
-      <c r="I2" t="n">
-        <v>372838.28341685</v>
-      </c>
       <c r="J2" t="n">
-        <v>372838.2834168499</v>
+        <v>372838.2834168497</v>
       </c>
       <c r="K2" t="n">
-        <v>372838.2834168499</v>
+        <v>372838.2834168501</v>
       </c>
       <c r="L2" t="n">
         <v>372838.28341685</v>
@@ -26349,10 +26349,10 @@
         <v>372838.28341685</v>
       </c>
       <c r="N2" t="n">
-        <v>372838.2834168499</v>
+        <v>372838.28341685</v>
       </c>
       <c r="O2" t="n">
-        <v>337272.1140794943</v>
+        <v>337272.114079494</v>
       </c>
       <c r="P2" t="n">
         <v>337272.1140794941</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689654</v>
+        <v>27504.83665689657</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>264201.4764986496</v>
       </c>
       <c r="E4" t="n">
-        <v>79813.69145146925</v>
+        <v>79813.69145146926</v>
       </c>
       <c r="F4" t="n">
-        <v>79813.69145146925</v>
+        <v>79813.69145146926</v>
       </c>
       <c r="G4" t="n">
         <v>75825.41318147432</v>
@@ -26441,16 +26441,16 @@
         <v>75825.41318147432</v>
       </c>
       <c r="J4" t="n">
-        <v>75825.41318147432</v>
+        <v>75825.4131814743</v>
       </c>
       <c r="K4" t="n">
-        <v>75825.41318147432</v>
+        <v>75825.4131814743</v>
       </c>
       <c r="L4" t="n">
-        <v>75825.41318147432</v>
+        <v>75825.4131814743</v>
       </c>
       <c r="M4" t="n">
-        <v>75825.41318147432</v>
+        <v>75825.4131814743</v>
       </c>
       <c r="N4" t="n">
         <v>75825.41318147432</v>
@@ -26459,7 +26459,7 @@
         <v>65971.74222475353</v>
       </c>
       <c r="P4" t="n">
-        <v>65971.74222475353</v>
+        <v>65971.74222475351</v>
       </c>
     </row>
     <row r="5">
@@ -26499,7 +26499,7 @@
         <v>54813.65170289689</v>
       </c>
       <c r="L5" t="n">
-        <v>54813.6517028969</v>
+        <v>54813.65170289689</v>
       </c>
       <c r="M5" t="n">
         <v>54813.6517028969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6853.056531870156</v>
+        <v>-6853.056531870039</v>
       </c>
       <c r="C6" t="n">
-        <v>169188.128185657</v>
+        <v>169188.1281856573</v>
       </c>
       <c r="D6" t="n">
         <v>169188.128185657</v>
       </c>
       <c r="E6" t="n">
-        <v>98378.31773700914</v>
+        <v>91810.71923619647</v>
       </c>
       <c r="F6" t="n">
-        <v>207664.1843863103</v>
+        <v>201096.5858854974</v>
       </c>
       <c r="G6" t="n">
-        <v>75101.46126564778</v>
+        <v>70250.79373086453</v>
       </c>
       <c r="H6" t="n">
-        <v>242199.2185324788</v>
+        <v>237348.5509976952</v>
       </c>
       <c r="I6" t="n">
-        <v>242199.2185324788</v>
+        <v>237348.5509976952</v>
       </c>
       <c r="J6" t="n">
-        <v>104756.7877407016</v>
+        <v>99906.12020591804</v>
       </c>
       <c r="K6" t="n">
-        <v>242199.2185324786</v>
+        <v>237348.5509976955</v>
       </c>
       <c r="L6" t="n">
-        <v>242199.2185324788</v>
+        <v>237348.5509976954</v>
       </c>
       <c r="M6" t="n">
-        <v>214694.3818755823</v>
+        <v>209843.7143407988</v>
       </c>
       <c r="N6" t="n">
-        <v>242199.2185324787</v>
+        <v>237348.5509976954</v>
       </c>
       <c r="O6" t="n">
-        <v>227256.1567838051</v>
+        <v>221037.559659123</v>
       </c>
       <c r="P6" t="n">
-        <v>227256.1567838049</v>
+        <v>221037.5596591232</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>525.3032012649904</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
         <v>635.6739684151827</v>
@@ -26819,7 +26819,7 @@
         <v>812.802860388229</v>
       </c>
       <c r="L4" t="n">
-        <v>812.8028603882291</v>
+        <v>812.802860388229</v>
       </c>
       <c r="M4" t="n">
         <v>812.8028603882291</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501924</v>
+        <v>110.3707671501925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -27387,7 +27387,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>339.9676065289147</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>179.3647542729981</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
@@ -27466,13 +27466,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>114.1651338436234</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>148.2613685852461</v>
       </c>
     </row>
     <row r="4">
@@ -27557,7 +27557,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27590,19 +27590,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>75.16430191944863</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>173.418098408748</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>221.3339386540194</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>21.25130078447495</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>20.02201280110239</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>97.62948669858321</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27782,16 +27782,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>118.6635700004343</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27830,10 +27830,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>53.85960365232751</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>388.5889659507711</v>
+        <v>203.6252922563251</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>57.60636999204287</v>
+        <v>57.6063699920433</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28034,7 +28034,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>23.85592810063371</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28067,13 +28067,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34780,10 +34780,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
@@ -34792,10 +34792,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>252.0720962387968</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>338.0986245924186</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>431.8697384571419</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35272,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17.42030366054508</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35509,7 +35509,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>242.0222767690054</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O15" t="n">
         <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558448</v>
+        <v>16.61276399284572</v>
       </c>
       <c r="Q15" t="n">
         <v>185.4518923209819</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>264.2505301905853</v>
+        <v>485.1009026601757</v>
       </c>
       <c r="M18" t="n">
         <v>624.8136250956743</v>
       </c>
       <c r="N18" t="n">
-        <v>654.8807876188359</v>
+        <v>95.55680782891361</v>
       </c>
       <c r="O18" t="n">
         <v>522.817038347654</v>
@@ -35983,7 +35983,7 @@
         <v>406.7995755503819</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>317.7686829872563</v>
       </c>
       <c r="L21" t="n">
-        <v>231.1533265296164</v>
+        <v>485.1009026601757</v>
       </c>
       <c r="M21" t="n">
-        <v>624.8136250956743</v>
+        <v>19.39704222067439</v>
       </c>
       <c r="N21" t="n">
-        <v>31.73570097221648</v>
+        <v>654.8807876188359</v>
       </c>
       <c r="O21" t="n">
-        <v>522.817038347654</v>
+        <v>251.1409584454753</v>
       </c>
       <c r="P21" t="n">
         <v>406.7995755503819</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K24" t="n">
         <v>317.7686829872563</v>
@@ -36448,16 +36448,16 @@
         <v>624.8136250956743</v>
       </c>
       <c r="N24" t="n">
-        <v>523.0613077123712</v>
+        <v>31.73570097221651</v>
       </c>
       <c r="O24" t="n">
-        <v>522.8170383476541</v>
+        <v>268.8694622170949</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>406.7995755503819</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>157.1689471002844</v>
+        <v>157.1689471002846</v>
       </c>
       <c r="K26" t="n">
         <v>369.1244168033267</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L27" t="n">
         <v>485.1009026601757</v>
       </c>
       <c r="M27" t="n">
-        <v>624.8136250956743</v>
+        <v>370.8660489651149</v>
       </c>
       <c r="N27" t="n">
-        <v>654.8807876188361</v>
+        <v>31.73570097221651</v>
       </c>
       <c r="O27" t="n">
         <v>522.8170383476541</v>
       </c>
       <c r="P27" t="n">
-        <v>185.9492030807916</v>
+        <v>406.7995755503819</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>157.1689471002846</v>
+        <v>157.1689471002844</v>
       </c>
       <c r="K29" t="n">
         <v>369.1244168033267</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>157.2491359130597</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L30" t="n">
-        <v>485.1009026601757</v>
+        <v>3.008453765678794</v>
       </c>
       <c r="M30" t="n">
-        <v>19.39704222067442</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N30" t="n">
         <v>654.8807876188361</v>
       </c>
       <c r="O30" t="n">
-        <v>522.8170383476541</v>
+        <v>238.9733572929547</v>
       </c>
       <c r="P30" t="n">
         <v>406.7995755503819</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K33" t="n">
-        <v>261.2420764249064</v>
+        <v>317.7686829872563</v>
       </c>
       <c r="L33" t="n">
-        <v>3.008453765678794</v>
+        <v>485.1009026601757</v>
       </c>
       <c r="M33" t="n">
-        <v>624.8136250956743</v>
+        <v>370.8660489651149</v>
       </c>
       <c r="N33" t="n">
-        <v>654.8807876188361</v>
+        <v>31.73570097221651</v>
       </c>
       <c r="O33" t="n">
         <v>522.8170383476541</v>
@@ -37168,7 +37168,7 @@
         <v>406.7995755503819</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>261.2420764249064</v>
       </c>
       <c r="L36" t="n">
-        <v>485.1009026601757</v>
+        <v>3.008453765678809</v>
       </c>
       <c r="M36" t="n">
         <v>624.8136250956743</v>
@@ -37402,7 +37402,7 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P36" t="n">
-        <v>185.9492030807916</v>
+        <v>406.7995755503819</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.8269861703606</v>
+        <v>202.8269861703604</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>180.0141097621754</v>
       </c>
       <c r="L39" t="n">
         <v>485.1009026601757</v>
@@ -37633,16 +37633,16 @@
         <v>624.8136250956743</v>
       </c>
       <c r="N39" t="n">
-        <v>206.713340656896</v>
+        <v>654.8807876188361</v>
       </c>
       <c r="O39" t="n">
-        <v>522.8170383476541</v>
+        <v>10.79602328790578</v>
       </c>
       <c r="P39" t="n">
         <v>406.7995755503819</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.3170744923497</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>157.1689471002846</v>
       </c>
       <c r="K41" t="n">
-        <v>369.1244168033267</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>176.1718055209302</v>
       </c>
       <c r="M41" t="n">
         <v>571.9116705091637</v>
@@ -37794,7 +37794,7 @@
         <v>559.68011400654</v>
       </c>
       <c r="O41" t="n">
-        <v>282.7667534298929</v>
+        <v>475.7193647122892</v>
       </c>
       <c r="P41" t="n">
         <v>373.5331889375192</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>111.1565328279824</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>317.7686829872564</v>
       </c>
       <c r="L42" t="n">
-        <v>3.008453765678809</v>
+        <v>485.1009026601757</v>
       </c>
       <c r="M42" t="n">
-        <v>566.7889134039019</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N42" t="n">
-        <v>635.6739684151828</v>
+        <v>116.2617321619892</v>
       </c>
       <c r="O42" t="n">
         <v>522.8170383476541</v>
@@ -37879,7 +37879,7 @@
         <v>406.7995755503819</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.3170744923497</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>32.17027722398119</v>
       </c>
       <c r="K44" t="n">
         <v>369.1244168033267</v>
       </c>
       <c r="L44" t="n">
-        <v>167.0433219882487</v>
+        <v>508.4062337017868</v>
       </c>
       <c r="M44" t="n">
         <v>571.9116705091637</v>
@@ -38034,7 +38034,7 @@
         <v>475.7193647122892</v>
       </c>
       <c r="P44" t="n">
-        <v>373.5331889375192</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>111.1565328279824</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>317.7686829872564</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>3.008453765678809</v>
+        <v>485.1009026601757</v>
       </c>
       <c r="M45" t="n">
-        <v>476.3373049089952</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N45" t="n">
         <v>635.6739684151828</v>
@@ -38113,7 +38113,7 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P45" t="n">
-        <v>406.7995755503819</v>
+        <v>205.1560222844448</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
